--- a/Data/Input/Input.xlsx
+++ b/Data/Input/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\UiPath\Download_YearlyReports\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\UiPath\Download_YearlyReports\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E409EC8-54BC-49F9-8881-7297047840C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A20AC-7B0E-434E-A2FD-3AFE33F520CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Actions Url</t>
   </si>
@@ -43,13 +43,139 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Generate Yearly Report for Vendor</t>
+  </si>
+  <si>
+    <t>WI4</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027344</t>
+  </si>
+  <si>
+    <t>103027344</t>
+  </si>
+  <si>
+    <t>2023-07-08</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027343</t>
+  </si>
+  <si>
+    <t>103027343</t>
+  </si>
+  <si>
+    <t>2017-03-02</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027349</t>
+  </si>
+  <si>
+    <t>103027349</t>
+  </si>
+  <si>
+    <t>2018-09-06</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027346</t>
+  </si>
+  <si>
+    <t>103027346</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027339</t>
+  </si>
+  <si>
+    <t>103027339</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027340</t>
+  </si>
+  <si>
+    <t>103027340</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027351</t>
+  </si>
+  <si>
+    <t>103027351</t>
+  </si>
+  <si>
+    <t>2023-05-14</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027350</t>
+  </si>
+  <si>
+    <t>103027350</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027352</t>
+  </si>
+  <si>
+    <t>103027352</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027341</t>
+  </si>
+  <si>
+    <t>103027341</t>
+  </si>
+  <si>
+    <t>2019-08-26</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027345</t>
+  </si>
+  <si>
+    <t>103027345</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027353</t>
+  </si>
+  <si>
+    <t>103027353</t>
+  </si>
+  <si>
+    <t>2018-07-11</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/103027347</t>
+  </si>
+  <si>
+    <t>103027347</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,14 +187,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,17 +209,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="A2:F18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +532,264 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
